--- a/posts/read file/test_out.xlsx
+++ b/posts/read file/test_out.xlsx
@@ -448,7 +448,7 @@
         <v>23.12067798153089</v>
       </c>
       <c r="J2">
-        <v>4542</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>23.53004658590756</v>
       </c>
       <c r="J3">
-        <v>4386</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         <v>23.57208838696484</v>
       </c>
       <c r="J4">
-        <v>1218</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>23.0367900782588</v>
       </c>
       <c r="J5">
-        <v>1421</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>23.24230187361175</v>
       </c>
       <c r="J6">
-        <v>7128</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         <v>21.98143712818229</v>
       </c>
       <c r="J7">
-        <v>7268</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         <v>22.30355142391368</v>
       </c>
       <c r="J8">
-        <v>1231</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="9">
@@ -742,7 +742,7 @@
         <v>21.86952547998447</v>
       </c>
       <c r="J9">
-        <v>2501</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>22.34383455637112</v>
       </c>
       <c r="J10">
-        <v>4072</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="11">
@@ -826,7 +826,7 @@
         <v>23.50591120301548</v>
       </c>
       <c r="J11">
-        <v>3285</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="12">
@@ -868,7 +868,7 @@
         <v>18.42217663668927</v>
       </c>
       <c r="J12">
-        <v>5651</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="13">
@@ -910,7 +910,7 @@
         <v>17.5714072566878</v>
       </c>
       <c r="J13">
-        <v>7212</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="14">
@@ -952,7 +952,7 @@
         <v>18.09530761263975</v>
       </c>
       <c r="J14">
-        <v>2663</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="15">
@@ -994,7 +994,7 @@
         <v>17.91638462640553</v>
       </c>
       <c r="J15">
-        <v>3310</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="16">
@@ -1036,7 +1036,7 @@
         <v>17.58218452512038</v>
       </c>
       <c r="J16">
-        <v>6246</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="17">
@@ -1078,7 +1078,7 @@
         <v>18.40709753072679</v>
       </c>
       <c r="J17">
-        <v>4857</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="18">
@@ -1120,7 +1120,7 @@
         <v>17.71591072261964</v>
       </c>
       <c r="J18">
-        <v>5812</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="19">
@@ -1162,7 +1162,7 @@
         <v>17.28541403136527</v>
       </c>
       <c r="J19">
-        <v>6317</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="20">
@@ -1204,7 +1204,7 @@
         <v>18.45217481885318</v>
       </c>
       <c r="J20">
-        <v>6197</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="21">
@@ -1246,7 +1246,7 @@
         <v>17.33210724849099</v>
       </c>
       <c r="J21">
-        <v>4551</v>
+        <v>3101</v>
       </c>
     </row>
   </sheetData>

--- a/posts/read file/test_out.xlsx
+++ b/posts/read file/test_out.xlsx
@@ -448,7 +448,7 @@
         <v>23.12067798153089</v>
       </c>
       <c r="J2">
-        <v>5718</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>23.53004658590756</v>
       </c>
       <c r="J3">
-        <v>4093</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         <v>23.57208838696484</v>
       </c>
       <c r="J4">
-        <v>5657</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>23.0367900782588</v>
       </c>
       <c r="J5">
-        <v>1552</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>23.24230187361175</v>
       </c>
       <c r="J6">
-        <v>4182</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         <v>21.98143712818229</v>
       </c>
       <c r="J7">
-        <v>3168</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         <v>22.30355142391368</v>
       </c>
       <c r="J8">
-        <v>2456</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="9">
@@ -742,7 +742,7 @@
         <v>21.86952547998447</v>
       </c>
       <c r="J9">
-        <v>5603</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>22.34383455637112</v>
       </c>
       <c r="J10">
-        <v>4982</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="11">
@@ -826,7 +826,7 @@
         <v>23.50591120301548</v>
       </c>
       <c r="J11">
-        <v>5262</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="12">
@@ -868,7 +868,7 @@
         <v>18.42217663668927</v>
       </c>
       <c r="J12">
-        <v>6805</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="13">
@@ -910,7 +910,7 @@
         <v>17.5714072566878</v>
       </c>
       <c r="J13">
-        <v>6290</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="14">
@@ -952,7 +952,7 @@
         <v>18.09530761263975</v>
       </c>
       <c r="J14">
-        <v>4325</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="15">
@@ -994,7 +994,7 @@
         <v>17.91638462640553</v>
       </c>
       <c r="J15">
-        <v>6196</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="16">
@@ -1036,7 +1036,7 @@
         <v>17.58218452512038</v>
       </c>
       <c r="J16">
-        <v>7218</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="17">
@@ -1078,7 +1078,7 @@
         <v>18.40709753072679</v>
       </c>
       <c r="J17">
-        <v>4516</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="18">
@@ -1120,7 +1120,7 @@
         <v>17.71591072261964</v>
       </c>
       <c r="J18">
-        <v>6054</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="19">
@@ -1162,7 +1162,7 @@
         <v>17.28541403136527</v>
       </c>
       <c r="J19">
-        <v>1642</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="20">
@@ -1204,7 +1204,7 @@
         <v>18.45217481885318</v>
       </c>
       <c r="J20">
-        <v>6812</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="21">
@@ -1246,7 +1246,7 @@
         <v>17.33210724849099</v>
       </c>
       <c r="J21">
-        <v>3101</v>
+        <v>5851</v>
       </c>
     </row>
   </sheetData>
